--- a/aline/historico.xlsx
+++ b/aline/historico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\Downloads\cadDash\teste\aline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E09C2E-7D6E-46C3-AEC8-C37C81429107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AFA298-A62F-4A19-912A-FF29EB9955A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,14 @@
     <sheet name="historico" sheetId="1" r:id="rId1"/>
     <sheet name="HistAlcadas" sheetId="2" r:id="rId2"/>
     <sheet name="HistTransf" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="56">
   <si>
     <t>DataAprovacao</t>
   </si>
@@ -1047,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1464,1165 @@
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A4F59B-DF5C-4117-B9E8-CCAE440D8041}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>